--- a/PABMI/ENTREGABLES/Matriz de Pruebas Configuraciones Catálogos   ALTAS BIENES MUEBLES - Usuarios.xlsx
+++ b/PABMI/ENTREGABLES/Matriz de Pruebas Configuraciones Catálogos   ALTAS BIENES MUEBLES - Usuarios.xlsx
@@ -17,11 +17,11 @@
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alta bien mueble '!$G$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Alta bien mueble '!$G$1:$G$23</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="124">
   <si>
     <t>Matriz de Pruebas Plataforma de Administración de Bienes Muebles e Inmuebles</t>
   </si>
@@ -383,12 +383,6 @@
     <t xml:space="preserve">Direcciona a la tercera parte del alta muebles </t>
   </si>
   <si>
-    <t xml:space="preserve">https://pabmi.atlassian.net/browse/PABMI-1179 </t>
-  </si>
-  <si>
-    <t>https://pabmi.atlassian.net/browse/PABMI-1171</t>
-  </si>
-  <si>
     <t>Dirije al apartado num 3</t>
   </si>
   <si>
@@ -431,15 +425,78 @@
     <t xml:space="preserve">Acceso para dar de alta un nuevo registro </t>
   </si>
   <si>
-    <t xml:space="preserve"> / ENTER EN REGISTROS 
- </t>
+    <t xml:space="preserve">Buscar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpiar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agignar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botón Buscar por fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca Registros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar registros por fechas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limpiar las fechas seleccionadas de busqueda </t>
+  </si>
+  <si>
+    <t>https://pabmi.atlassian.net/browse/PABMI-1325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de adqusición / as opciones de selección algunas se visualizan en mayúsculas se recomienda homologar la fuente que sea la primera letra mayúscula Adquisición y los que tiene mas de una palabra Carga Inicial por Control Interno
+</t>
+  </si>
+  <si>
+    <t>edgar.leal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ferrnando.aguilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enlaces </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualización de Factura </t>
+  </si>
+  <si>
+    <t>Verificar que el coordinador  de dependencias vea los registros de sus enlaces.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifica enlaces </t>
+  </si>
+  <si>
+    <t>Coordinador de la dependencia</t>
+  </si>
+  <si>
+    <t>Judith Jaramillo</t>
+  </si>
+  <si>
+    <t>Coordinadora de Bienes Muebles.</t>
+  </si>
+  <si>
+    <t>Verificar que el coordinador  de bienes muebles vea todos los registros del sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar que la factura este bien </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +573,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -756,7 +819,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,17 +874,18 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,7 +1028,7 @@
               <a:rPr lang="es-MX" sz="1800">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Configuración-&gt; Alta</a:t>
+              <a:t>Alta</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-MX" sz="1800" baseline="0">
@@ -976,6 +1040,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,7 +1534,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1533,7 +1600,9 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1770,6 +1839,29 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
+                  <c:x val="-9.3830635702556925E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
                   <c:x val="-0.15781131228250236"/>
                   <c:y val="-0.17543859649122817"/>
                 </c:manualLayout>
@@ -1781,9 +1873,11 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000001F-296A-4B28-822E-076088C40B78}"/>
+                  <c16:uniqueId val="{00000020-296A-4B28-822E-076088C40B78}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1842,13 +1936,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$6</c:f>
+              <c:f>GRAFICOS!$A$4:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Error</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Pendiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Realizado</c:v>
                 </c:pt>
               </c:strCache>
@@ -1856,15 +1953,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$6</c:f>
+              <c:f>GRAFICOS!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2310,6 +2410,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3250,7 +3353,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tarea por hacer</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3290,24 +3393,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$49:$A$50</c:f>
+              <c:f>GRAFICOS!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mayra Cortes</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$49:$B$50</c:f>
+              <c:f>GRAFICOS!$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5529,13 +5629,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45183.497686458337" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="23">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45205.550923726849" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="37">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:N39" sheet="Alta bien mueble "/>
+    <worksheetSource ref="A6:N43" sheet="Alta bien mueble "/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="N° Caso" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="9"/>
     </cacheField>
     <cacheField name="Menús" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5550,19 +5650,19 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Acción" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
       <sharedItems containsBlank="1" count="5">
         <s v="Realizado"/>
         <s v="Error"/>
-        <m/>
-        <s v="Pendiente" u="1"/>
+        <s v="Pendiente"/>
+        <m u="1"/>
         <s v="Ingresar " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -5571,10 +5671,11 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Desarrollador" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <m/>
-        <s v="Mayra Cortes"/>
+        <s v="Gerardo Flores"/>
         <s v="Noe Treviño" u="1"/>
+        <s v="Mayra Cortes" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estatus Incidente" numFmtId="0">
@@ -5588,8 +5689,8 @@
     <cacheField name="N° de Tarea Jira" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Fecha " numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-02-13T00:00:00" maxDate="2023-02-15T00:00:00"/>
+    <cacheField name="Fecha " numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-10-06T00:00:00" maxDate="2023-10-07T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5601,13 +5702,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="23">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="37">
   <r>
     <n v="1"/>
     <s v="Ingresar sitio wed"/>
     <s v="http://10.200.4.165/"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Enlace "/>
+    <s v="Roberto.villarreal "/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Ingreso Correctamente al sistema"/>
@@ -5616,14 +5717,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="2"/>
     <s v="Ingresar las Credenciales "/>
-    <s v="irisc"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Roberto.villarreal"/>
+    <s v="Enlace "/>
+    <s v="Roberto.villarreal "/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Ingreso correctamente con el usuario correspondiente "/>
@@ -5632,46 +5733,46 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="3"/>
     <s v="Aplicación PABMI"/>
     <s v="PABMI"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Enlace "/>
+    <s v="Roberto.villarreal "/>
     <s v="Ingresar "/>
     <x v="0"/>
-    <s v="Se ingresa al sistema PABMI, se despliega el menú donde se presentan todas las opciones, se localiza un problema de ortografía en la opción de Catálogos."/>
+    <s v="Se ingresa al sistema PABMI, "/>
     <s v="Ingresar al apartado correspondiente "/>
     <m/>
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="4"/>
     <s v="Principal "/>
     <s v="Menú Inicio"/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Enlace "/>
+    <s v="Roberto.villarreal "/>
     <s v="Despliegue"/>
-    <x v="0"/>
-    <s v="Despliegue de menús "/>
-    <s v="Despliegue de Menús "/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <s v="Despliegue de menús correctamente además de despliegue del  menú donde se presentan todas las opciones, Almacén lleva acento y no lo tiene.   "/>
+    <s v="Despliegue de Menús y Validación de Nombre completo del usuario y la dependencia a la que pertenece, así como su puesto"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://pabmi.atlassian.net/browse/PABMI-1325"/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="5"/>
     <s v="Inicio"/>
     <s v="Inicio "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Enlace "/>
+    <s v="Roberto.villarreal "/>
     <s v="Inicio "/>
     <x v="0"/>
     <s v="Direcciona página principal"/>
@@ -5680,14 +5781,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="6"/>
     <s v="Muebles "/>
     <s v="Almacén "/>
-    <s v="Verificador "/>
-    <s v="irisqa"/>
+    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Despliegue de menú Almacén "/>
@@ -5696,14 +5797,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="7"/>
     <s v="Almacén "/>
     <s v="ALTAS "/>
     <s v="Verificador "/>
-    <s v="irisqa"/>
+    <s v="Roberto.villarreal "/>
     <s v="Ingresar "/>
     <x v="0"/>
     <s v="Inglesa a la pantalla Listado de Altas "/>
@@ -5712,30 +5813,110 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
+    <s v="Nuevo  "/>
+    <x v="1"/>
+    <s v="El sombreado del botón agregar no esta centrado "/>
+    <s v="Acceso para dar de alta un nuevo registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Roberto.villarreal "/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Buscar registros "/>
+    <s v="Busca Registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Roberto.villarreal "/>
+    <s v="Botón Buscar por fecha "/>
+    <x v="0"/>
+    <s v="Buscar registros por fechas "/>
+    <s v="Buscar registros por fechas "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Roberto.villarreal "/>
+    <s v="Limpiar "/>
+    <x v="0"/>
+    <s v="Limpiar las fechas seleccionadas de busqueda "/>
+    <s v="Limpiar las fechas seleccionadas de busqueda "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Roberto.villarreal "/>
+    <s v="Agignar "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Nuevo Registro Paso 1 "/>
     <x v="1"/>
-    <s v="Agregar tooltips descriptivos en los Botones Agregar, visualizar la  factura, así como los botones de acción, un de ellos dice confirmar pero no dice que se desea confirmar / ENTER EN REGISTROS _x000a_Botón nuevo no es parecido a los demás de las otra plataformas _x000a_Botón Buscar y Limpiar no tienen tooltip descriptivo "/>
+    <s v="Tipo de adqusición / as opciones de selección algunas se visualizan en mayúsculas se recomienda homologar la fuente que sea la primera letra mayúscula Adquisición y los que tiene mas de una palabra Carga Inicial por Control Interno_x000a_"/>
     <s v="Dar acceso a la Primera parte del alta muebles "/>
     <m/>
     <x v="1"/>
     <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-1179 "/>
-    <d v="2023-02-14T00:00:00"/>
+    <s v="https://pabmi.atlassian.net/browse/PABMI-1325"/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Cancelar "/>
     <x v="0"/>
     <s v="Cancela Registro "/>
@@ -5744,14 +5925,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Siguiente "/>
     <x v="0"/>
     <s v="Direcciona a la segunda parte del alta muebles "/>
@@ -5760,30 +5941,30 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Paso2 "/>
     <x v="1"/>
     <s v="El  campo No. de inventario se visualiza como se muestra en pantalla si se agrega un numero de las de 6 cifras _x000a_Campo descripción tiene algún margen de capacidad de formato"/>
     <s v="Dar acceso a la segunda parte del alta muebles "/>
     <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://pabmi.atlassian.net/browse/PABMI-1325"/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Cancelar "/>
     <x v="0"/>
     <s v="Cancela Registro "/>
@@ -5792,14 +5973,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Atrás"/>
     <x v="0"/>
     <s v="Regresa al paso 1 daros alta "/>
@@ -5808,14 +5989,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Siguiente "/>
     <x v="0"/>
     <s v="Direcciona a la tercera parte del alta muebles "/>
@@ -5824,14 +6005,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Paso 3"/>
     <x v="0"/>
     <s v="Dirije al apartado num 3"/>
@@ -5840,14 +6021,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Cargar Factura "/>
     <x v="0"/>
     <s v="Cargar documento "/>
@@ -5856,14 +6037,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Cancelar "/>
     <x v="0"/>
     <s v="Cancela Registro "/>
@@ -5872,14 +6053,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="Atrás"/>
     <x v="0"/>
     <s v="Regresa al paso 2 daros alta "/>
@@ -5888,14 +6069,14 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
+    <s v="Roberto.villarreal "/>
     <s v="terminar "/>
     <x v="0"/>
     <s v="terminar registro "/>
@@ -5904,7 +6085,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <n v="8"/>
@@ -5920,7 +6101,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5936,7 +6117,7 @@
     <x v="0"/>
     <x v="0"/>
     <m/>
-    <m/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
@@ -5949,33 +6130,177 @@
     <s v="La palabra Almacén lleva acento y se visualiza sin acento en pantalla, El mensaje de filas seleccionadas esta en ingles"/>
     <s v="Textos en español, sin errores ortagraficos "/>
     <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="Almacén "/>
+    <s v="ALTAS "/>
+    <s v="Verificador "/>
+    <s v="edgar.leal"/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <s v="Inglesa a la pantalla Listado de Altas "/>
+    <s v="Inglesa a la pantalla Listado de Altas "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Nuevo  "/>
+    <x v="1"/>
+    <s v="El sombreado del botón agregar no esta centrado "/>
+    <s v="Acceso para dar de alta un nuevo registro "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Buscar "/>
+    <x v="0"/>
+    <s v="Buscar registros "/>
+    <s v="Busca Registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Botón Buscar por fecha "/>
+    <x v="0"/>
+    <s v="Buscar registros por fechas "/>
+    <s v="Buscar registros por fechas "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Limpiar "/>
+    <x v="0"/>
+    <s v="Limpiar las fechas seleccionadas de busqueda "/>
+    <s v="Limpiar las fechas seleccionadas de busqueda "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Agignar "/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Nuevo Registro Paso 1 "/>
+    <x v="1"/>
+    <s v="Tipo de adqusición / as opciones de selección algunas se visualizan en mayúsculas se recomienda homologar la fuente que sea la primera letra mayúscula Adquisición y los que tiene mas de una palabra Carga Inicial por Control Interno_x000a_"/>
+    <s v="Dar acceso a la Primera parte del alta muebles "/>
+    <m/>
     <x v="1"/>
     <x v="1"/>
-    <s v="https://pabmi.atlassian.net/browse/PABMI-1171"/>
-    <d v="2023-02-13T00:00:00"/>
+    <s v="https://pabmi.atlassian.net/browse/PABMI-1325"/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
   <r>
     <m/>
     <m/>
     <m/>
     <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="edgar.leal"/>
+    <s v="Cancelar "/>
+    <x v="0"/>
+    <s v="Cancela Registro "/>
+    <s v="Cancelar registros "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Siguiente "/>
+    <x v="0"/>
+    <s v="Direcciona a la segunda parte del alta muebles "/>
+    <s v="Direcciona a la segunda parte del alta muebles "/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <d v="2023-10-06T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="edgar.leal"/>
+    <s v="Paso2 "/>
+    <x v="1"/>
+    <s v="El  campo No. de inventario se visualiza como se muestra en pantalla si se agrega un numero de las de 6 cifras _x000a_Campo descripción tiene algún margen de capacidad de formato"/>
+    <s v="Dar acceso a la segunda parte del alta muebles "/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="https://pabmi.atlassian.net/browse/PABMI-1325"/>
+    <d v="2023-10-06T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5988,10 +6313,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="5">
         <item h="1" x="0"/>
         <item h="1" m="1" x="2"/>
-        <item x="1"/>
+        <item m="1" x="3"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6010,10 +6336,7 @@
   <rowFields count="1">
     <field x="10"/>
   </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -6021,10 +6344,7 @@
   <colFields count="1">
     <field x="11"/>
   </colFields>
-  <colItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -6080,7 +6400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -6147,8 +6467,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6159,9 +6479,9 @@
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
         <item x="1"/>
-        <item m="1" x="3"/>
+        <item x="2"/>
         <item x="0"/>
-        <item h="1" x="2"/>
+        <item h="1" m="1" x="3"/>
         <item h="1" m="1" x="4"/>
         <item t="default"/>
       </items>
@@ -6177,9 +6497,12 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
+    </i>
+    <i>
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -6498,13 +6821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:F5"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6525,94 +6848,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="37" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
@@ -6669,10 +6992,10 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -6689,7 +7012,7 @@
       <c r="J7" s="14"/>
       <c r="M7" s="15"/>
       <c r="N7" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -6700,13 +7023,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -6723,7 +7046,7 @@
       <c r="J8" s="2"/>
       <c r="M8" s="15"/>
       <c r="N8" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -6737,10 +7060,10 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -6749,7 +7072,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>52</v>
@@ -6757,7 +7080,7 @@
       <c r="J9" s="2"/>
       <c r="M9" s="15"/>
       <c r="N9" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -6771,10 +7094,10 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -6783,15 +7106,23 @@
         <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="M10" s="6"/>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="N10" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -6805,10 +7136,10 @@
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
@@ -6825,7 +7156,7 @@
       <c r="J11" s="2"/>
       <c r="M11" s="6"/>
       <c r="N11" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -6839,7 +7170,7 @@
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -6855,7 +7186,7 @@
       </c>
       <c r="J12" s="2"/>
       <c r="N12" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -6872,7 +7203,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>20</v>
@@ -6889,7 +7220,7 @@
       <c r="J13" s="2"/>
       <c r="M13" s="23"/>
       <c r="N13" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -6898,160 +7229,158 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="J14" s="22"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="N14" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>88</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="M15" s="23"/>
       <c r="N15" s="1">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="24" t="s">
-        <v>83</v>
+      <c r="H16" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="M16" s="21"/>
+        <v>108</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="M16" s="23"/>
       <c r="N16" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="M17" s="21"/>
+      <c r="H17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="29"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="M18" s="21"/>
+        <v>32</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="22"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="29"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>83</v>
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="M19" s="21"/>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="N19" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -7060,33 +7389,33 @@
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>86</v>
+      <c r="H20" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="J20" s="2"/>
       <c r="M20" s="21"/>
       <c r="N20" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="29"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>68</v>
@@ -7094,42 +7423,50 @@
       <c r="G21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="22"/>
+      <c r="H21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="M21" s="21"/>
       <c r="N21" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="29"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="22"/>
-      <c r="M22" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="N22" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -7138,22 +7475,24 @@
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>91</v>
+      <c r="H23" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -7162,46 +7501,50 @@
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="29"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -7210,62 +7553,58 @@
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N26" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="28">
-        <v>8</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>19</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N27" s="1">
-        <v>44970</v>
+        <v>45205</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="26"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="27"/>
-      <c r="E28" s="26"/>
+      <c r="E28" t="s">
+        <v>93</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>66</v>
       </c>
@@ -7279,43 +7618,1051 @@
         <v>83</v>
       </c>
       <c r="N28" s="1">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="26"/>
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="26"/>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
       <c r="F29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N30" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <v>8</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N31" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N32" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G33" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I33" t="s">
         <v>79</v>
       </c>
-      <c r="K29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="M33" s="6"/>
+      <c r="N33" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
+        <v>9</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="22"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="N40" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" t="s">
+        <v>45</v>
+      </c>
+      <c r="L43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M43" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="N43" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="22"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" t="s">
+        <v>112</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N29" s="1">
-        <v>44970</v>
+      <c r="I48" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N48" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N49" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N50" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N51" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="30">
+        <v>10</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="27"/>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N53" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="27"/>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+      <c r="M54" s="6"/>
+      <c r="N54" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="27">
+        <v>11</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N55" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N56" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N57" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N58" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N59" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60" t="s">
+        <v>32</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="N60" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="N61" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N62" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="27">
+        <v>12</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N63" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="27"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N64" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="27"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N65" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="27"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N66" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N67" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N68" s="1">
+        <v>45205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N69" s="1">
+        <v>45205</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G19"/>
-  <mergeCells count="16">
+  <autoFilter ref="G1:G23"/>
+  <mergeCells count="32">
     <mergeCell ref="A1:N2"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="E3:F4"/>
@@ -7323,23 +8670,42 @@
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:N5"/>
-    <mergeCell ref="D13:D26"/>
-    <mergeCell ref="C13:C26"/>
-    <mergeCell ref="B13:B26"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D13:D30"/>
+    <mergeCell ref="C13:C30"/>
+    <mergeCell ref="B13:B30"/>
+    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="B34:B51"/>
+    <mergeCell ref="C34:C51"/>
+    <mergeCell ref="D34:D51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="A55:A62"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="D55:D62"/>
+    <mergeCell ref="C55:C62"/>
+    <mergeCell ref="B55:B62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="M15" r:id="rId2"/>
-    <hyperlink ref="M29" r:id="rId3"/>
+    <hyperlink ref="M10" r:id="rId2"/>
+    <hyperlink ref="M19" r:id="rId3"/>
+    <hyperlink ref="M22" r:id="rId4"/>
+    <hyperlink ref="M40" r:id="rId5"/>
+    <hyperlink ref="M43" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -7353,25 +8719,25 @@
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L8:L22 L29</xm:sqref>
+          <xm:sqref>L8:L26 L33:L47 L54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K18 K13:K14</xm:sqref>
+          <xm:sqref>K13:K18 K34:K39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$12</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K12 K15:K17 K19:K22 K29</xm:sqref>
+          <xm:sqref>K7:K12 K19:K26 K33 K40:K47 K54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G22 G27:G29</xm:sqref>
+          <xm:sqref>G7:G26 G31:G47 G52:G60 G63:G67</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7381,7 +8747,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C50"/>
+  <dimension ref="A3:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R31" sqref="R31"/>
@@ -7389,8 +8755,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.625" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
@@ -7413,23 +8779,31 @@
         <v>31</v>
       </c>
       <c r="B4" s="17">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="19">
-        <v>22</v>
+      <c r="B7" s="19">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -7444,15 +8818,19 @@
       <c r="A25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="19"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
@@ -7460,38 +8838,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="20">
-        <v>2</v>
-      </c>
-      <c r="C49" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="20">
-        <v>2</v>
-      </c>
-      <c r="C50" s="20">
-        <v>2</v>
-      </c>
+      <c r="B49" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
